--- a/Alimentos.xlsx
+++ b/Alimentos.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b76ebba78e305369/Projects/IA/Fase 02/Michael/genetic-algorithm-diet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_0EDDC449AFA63C994FE7BE3DA078007746113D34" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F78108F8-0069-4036-A081-E795DFF59910}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_0EDDC449AFA63C994FE7BE3DA078007746113D34" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA1F935D-B563-4D8E-95BC-F9AAED71DAB1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Página1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Página1!$A$1:$AB$598</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1672,9 +1675,6 @@
     <t>Café, pó, torrado</t>
   </si>
   <si>
-    <t>Miscelâneas</t>
-  </si>
-  <si>
     <t>Capuccino, pó</t>
   </si>
   <si>
@@ -1973,6 +1973,9 @@
   </si>
   <si>
     <t>NOZES</t>
+  </si>
+  <si>
+    <t>MISCELANEAS</t>
   </si>
 </sst>
 </file>
@@ -2174,6 +2177,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3226,7 +3233,9 @@
   </sheetPr>
   <dimension ref="A1:AB598"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3411,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -3497,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="AB3" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -3583,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="AB4" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -3669,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="AB5" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -3753,7 +3762,7 @@
       </c>
       <c r="AA6" s="11"/>
       <c r="AB6" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -3839,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="AB7" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -3925,7 +3934,7 @@
         <v>1.35</v>
       </c>
       <c r="AB8" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -4011,7 +4020,7 @@
         <v>6.2166666666666703</v>
       </c>
       <c r="AB9" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -4097,7 +4106,7 @@
         <v>3.5266666666666699</v>
       </c>
       <c r="AB10" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -4184,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="AB11" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -4270,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -4356,7 +4365,7 @@
         <v>0</v>
       </c>
       <c r="AB13" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -4442,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="AB14" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -4528,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="AB15" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -4614,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="AB16" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -4700,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="AB17" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="18" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -4786,7 +4795,7 @@
         <v>0</v>
       </c>
       <c r="AB18" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -4872,7 +4881,7 @@
         <v>0</v>
       </c>
       <c r="AB19" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="20" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -4958,7 +4967,7 @@
         <v>0</v>
       </c>
       <c r="AB20" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -5044,7 +5053,7 @@
         <v>0</v>
       </c>
       <c r="AB21" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -5130,7 +5139,7 @@
         <v>0</v>
       </c>
       <c r="AB22" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -5216,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="AB23" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="24" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -5302,7 +5311,7 @@
         <v>109.366666666667</v>
       </c>
       <c r="AB24" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="25" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -5388,7 +5397,7 @@
         <v>13.106666666666699</v>
       </c>
       <c r="AB25" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -5474,7 +5483,7 @@
         <v>17.293333333333301</v>
       </c>
       <c r="AB26" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -5560,7 +5569,7 @@
         <v>14.55</v>
       </c>
       <c r="AB27" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="28" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -5646,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="AB28" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="29" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -5732,7 +5741,7 @@
         <v>96.34</v>
       </c>
       <c r="AB29" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="30" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -5820,7 +5829,7 @@
         <v>0</v>
       </c>
       <c r="AB30" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="31" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -5906,7 +5915,7 @@
         <v>0</v>
       </c>
       <c r="AB31" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="32" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -5992,7 +6001,7 @@
         <v>173.58666666666701</v>
       </c>
       <c r="AB32" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="33" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -6078,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="AB33" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="34" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -6164,7 +6173,7 @@
         <v>0</v>
       </c>
       <c r="AB34" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="35" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -6250,7 +6259,7 @@
         <v>0</v>
       </c>
       <c r="AB35" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="36" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -6336,7 +6345,7 @@
         <v>0</v>
       </c>
       <c r="AB36" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="37" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -6422,7 +6431,7 @@
         <v>24.31</v>
       </c>
       <c r="AB37" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="38" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -6508,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="AB38" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="39" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -6594,7 +6603,7 @@
         <v>0</v>
       </c>
       <c r="AB39" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="40" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -6680,7 +6689,7 @@
         <v>0</v>
       </c>
       <c r="AB40" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="41" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -6766,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="AB41" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="42" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -6852,7 +6861,7 @@
         <v>0</v>
       </c>
       <c r="AB42" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="43" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -6938,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="AB43" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="44" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -7024,7 +7033,7 @@
         <v>0</v>
       </c>
       <c r="AB44" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="45" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -7110,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="AB45" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="46" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -7196,7 +7205,7 @@
         <v>1.7433333333333301</v>
       </c>
       <c r="AB46" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="47" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -7282,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="AB47" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="48" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -7368,7 +7377,7 @@
         <v>0</v>
       </c>
       <c r="AB48" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="49" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -7454,7 +7463,7 @@
         <v>0</v>
       </c>
       <c r="AB49" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="50" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -7540,7 +7549,7 @@
         <v>0</v>
       </c>
       <c r="AB50" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="51" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -7626,7 +7635,7 @@
         <v>0</v>
       </c>
       <c r="AB51" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="52" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -7712,7 +7721,7 @@
         <v>0</v>
       </c>
       <c r="AB52" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="53" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -7798,7 +7807,7 @@
         <v>0</v>
       </c>
       <c r="AB53" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="54" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -7884,7 +7893,7 @@
         <v>0</v>
       </c>
       <c r="AB54" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="55" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -7970,7 +7979,7 @@
         <v>0</v>
       </c>
       <c r="AB55" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="56" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -8056,7 +8065,7 @@
         <v>0</v>
       </c>
       <c r="AB56" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="57" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -8142,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="AB57" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="58" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -8228,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="AB58" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="59" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -8315,7 +8324,7 @@
         <v>0</v>
       </c>
       <c r="AB59" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="60" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -8401,7 +8410,7 @@
         <v>0</v>
       </c>
       <c r="AB60" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="61" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -8487,7 +8496,7 @@
         <v>0</v>
       </c>
       <c r="AB61" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="62" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -8573,7 +8582,7 @@
         <v>0</v>
       </c>
       <c r="AB62" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="63" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -8659,7 +8668,7 @@
         <v>0</v>
       </c>
       <c r="AB63" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="64" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -8745,7 +8754,7 @@
         <v>0</v>
       </c>
       <c r="AB64" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="65" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -8831,7 +8840,7 @@
         <v>7.4633333333333303</v>
       </c>
       <c r="AB65" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="66" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -8917,7 +8926,7 @@
         <v>5.09</v>
       </c>
       <c r="AB66" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="67" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -9003,7 +9012,7 @@
         <v>1.5</v>
       </c>
       <c r="AB67" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="68" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -9089,7 +9098,7 @@
         <v>9.6466666666666701</v>
       </c>
       <c r="AB68" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="69" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -9175,7 +9184,7 @@
         <v>6.7266666666666701</v>
       </c>
       <c r="AB69" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="70" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -9261,7 +9270,7 @@
         <v>2.09</v>
       </c>
       <c r="AB70" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="71" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -9347,7 +9356,7 @@
         <v>2.13</v>
       </c>
       <c r="AB71" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="72" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -9433,7 +9442,7 @@
         <v>6.8733333333333304</v>
       </c>
       <c r="AB72" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="73" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -9519,7 +9528,7 @@
         <v>7.53</v>
       </c>
       <c r="AB73" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="74" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -9605,7 +9614,7 @@
         <v>17.546666666666699</v>
       </c>
       <c r="AB74" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="75" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -9691,7 +9700,7 @@
         <v>22.55</v>
       </c>
       <c r="AB75" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="76" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -9777,7 +9786,7 @@
         <v>60.1</v>
       </c>
       <c r="AB76" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="77" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -9863,7 +9872,7 @@
         <v>5.88</v>
       </c>
       <c r="AB77" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="78" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -9949,7 +9958,7 @@
         <v>10.96</v>
       </c>
       <c r="AB78" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="79" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -10035,7 +10044,7 @@
         <v>15.5766666666667</v>
       </c>
       <c r="AB79" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="80" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -10121,7 +10130,7 @@
         <v>21.39</v>
       </c>
       <c r="AB80" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="81" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -10207,7 +10216,7 @@
         <v>13.473333333333301</v>
       </c>
       <c r="AB81" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="82" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -10293,7 +10302,7 @@
         <v>0</v>
       </c>
       <c r="AB82" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="83" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -10379,7 +10388,7 @@
         <v>0</v>
       </c>
       <c r="AB83" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="84" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -10465,7 +10474,7 @@
         <v>14.1466666666667</v>
       </c>
       <c r="AB84" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="85" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -10551,7 +10560,7 @@
         <v>1.6866666666666701</v>
       </c>
       <c r="AB85" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="86" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -10637,7 +10646,7 @@
         <v>1.47</v>
       </c>
       <c r="AB86" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="87" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -10723,7 +10732,7 @@
         <v>17.100000000000001</v>
       </c>
       <c r="AB87" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="88" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -10809,7 +10818,7 @@
         <v>7.55</v>
       </c>
       <c r="AB88" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="89" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -10895,7 +10904,7 @@
         <v>23.786666666666701</v>
       </c>
       <c r="AB89" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="90" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -10981,7 +10990,7 @@
         <v>16.48</v>
       </c>
       <c r="AB90" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="91" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -11067,7 +11076,7 @@
         <v>0</v>
       </c>
       <c r="AB91" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="92" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -11153,7 +11162,7 @@
         <v>3.76</v>
       </c>
       <c r="AB92" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="93" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -11239,7 +11248,7 @@
         <v>31.0833333333333</v>
       </c>
       <c r="AB93" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="94" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -11325,7 +11334,7 @@
         <v>16.343333333333302</v>
       </c>
       <c r="AB94" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="95" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -11411,7 +11420,7 @@
         <v>0</v>
       </c>
       <c r="AB95" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="96" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -11497,7 +11506,7 @@
         <v>0</v>
       </c>
       <c r="AB96" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="97" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -11583,7 +11592,7 @@
         <v>3.01</v>
       </c>
       <c r="AB97" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="98" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -11669,7 +11678,7 @@
         <v>1.24</v>
       </c>
       <c r="AB98" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="99" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -11755,7 +11764,7 @@
         <v>3.1166666666666698</v>
       </c>
       <c r="AB99" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="100" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -11841,7 +11850,7 @@
         <v>0</v>
       </c>
       <c r="AB100" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="101" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -11927,7 +11936,7 @@
         <v>42.003333333333302</v>
       </c>
       <c r="AB101" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="102" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -12013,7 +12022,7 @@
         <v>34.283333333333303</v>
       </c>
       <c r="AB102" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="103" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -12099,7 +12108,7 @@
         <v>0</v>
       </c>
       <c r="AB103" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="104" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -12185,7 +12194,7 @@
         <v>8.7866666666666706</v>
       </c>
       <c r="AB104" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="105" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -12271,7 +12280,7 @@
         <v>5.35666666666667</v>
       </c>
       <c r="AB105" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="106" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -12357,7 +12366,7 @@
         <v>7.3333333333333304</v>
       </c>
       <c r="AB106" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="107" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -12443,7 +12452,7 @@
         <v>0</v>
       </c>
       <c r="AB107" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="108" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -12529,7 +12538,7 @@
         <v>4.6666666666666696</v>
       </c>
       <c r="AB108" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="109" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -12615,7 +12624,7 @@
         <v>31.78</v>
       </c>
       <c r="AB109" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="110" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -12701,7 +12710,7 @@
         <v>0</v>
       </c>
       <c r="AB110" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="111" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -12787,7 +12796,7 @@
         <v>5.1166666666666698</v>
       </c>
       <c r="AB111" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="112" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -12873,7 +12882,7 @@
         <v>6.5433333333333303</v>
       </c>
       <c r="AB112" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="113" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -12959,7 +12968,7 @@
         <v>5.56666666666667</v>
       </c>
       <c r="AB113" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="114" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -13045,7 +13054,7 @@
         <v>10.6133333333333</v>
       </c>
       <c r="AB114" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="115" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -13131,7 +13140,7 @@
         <v>40.773333333333298</v>
       </c>
       <c r="AB115" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="116" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -13217,7 +13226,7 @@
         <v>96.683333333333294</v>
       </c>
       <c r="AB116" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="117" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -13303,7 +13312,7 @@
         <v>76.9433333333333</v>
       </c>
       <c r="AB117" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="118" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -13389,7 +13398,7 @@
         <v>36.049999999999997</v>
       </c>
       <c r="AB118" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="119" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -13475,7 +13484,7 @@
         <v>23.696666666666701</v>
       </c>
       <c r="AB119" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="120" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -13561,7 +13570,7 @@
         <v>2.42</v>
       </c>
       <c r="AB120" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="121" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -13647,7 +13656,7 @@
         <v>5.2666666666666702</v>
       </c>
       <c r="AB121" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="122" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -13733,7 +13742,7 @@
         <v>0</v>
       </c>
       <c r="AB122" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="123" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -13819,7 +13828,7 @@
         <v>0</v>
       </c>
       <c r="AB123" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="124" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -13905,7 +13914,7 @@
         <v>0</v>
       </c>
       <c r="AB124" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="125" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -13991,7 +14000,7 @@
         <v>0</v>
       </c>
       <c r="AB125" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="126" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -14077,7 +14086,7 @@
         <v>12</v>
       </c>
       <c r="AB126" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="127" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -14163,7 +14172,7 @@
         <v>5.6233333333333304</v>
       </c>
       <c r="AB127" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="128" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -14249,7 +14258,7 @@
         <v>6.7933333333333303</v>
       </c>
       <c r="AB128" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="129" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -14335,7 +14344,7 @@
         <v>13.8333333333333</v>
       </c>
       <c r="AB129" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="130" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -14421,7 +14430,7 @@
         <v>11.0666666666667</v>
       </c>
       <c r="AB130" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="131" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -14507,7 +14516,7 @@
         <v>16.526666666666699</v>
       </c>
       <c r="AB131" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="132" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -14593,7 +14602,7 @@
         <v>0</v>
       </c>
       <c r="AB132" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="133" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -14679,7 +14688,7 @@
         <v>0</v>
       </c>
       <c r="AB133" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="134" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -14765,7 +14774,7 @@
         <v>2.33666666666667</v>
       </c>
       <c r="AB134" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="135" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -14851,7 +14860,7 @@
         <v>9.6329999999999991</v>
       </c>
       <c r="AB135" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="136" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -14937,7 +14946,7 @@
         <v>38.553333333333299</v>
       </c>
       <c r="AB136" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="137" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15023,7 +15032,7 @@
         <v>0</v>
       </c>
       <c r="AB137" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="138" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15109,7 +15118,7 @@
         <v>9.5500000000000007</v>
       </c>
       <c r="AB138" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="139" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15195,7 +15204,7 @@
         <v>1.98</v>
       </c>
       <c r="AB139" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="140" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15281,7 +15290,7 @@
         <v>8.6633333333333304</v>
       </c>
       <c r="AB140" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="141" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15367,7 +15376,7 @@
         <v>0</v>
       </c>
       <c r="AB141" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="142" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15453,7 +15462,7 @@
         <v>0</v>
       </c>
       <c r="AB142" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="143" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15539,7 +15548,7 @@
         <v>4.9866666666666699</v>
       </c>
       <c r="AB143" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="144" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15625,7 +15634,7 @@
         <v>201.36</v>
       </c>
       <c r="AB144" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="145" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15711,7 +15720,7 @@
         <v>100.21</v>
       </c>
       <c r="AB145" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="146" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15797,7 +15806,7 @@
         <v>158.21</v>
       </c>
       <c r="AB146" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="147" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15883,7 +15892,7 @@
         <v>0</v>
       </c>
       <c r="AB147" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="148" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -15969,7 +15978,7 @@
         <v>5.5966666666666702</v>
       </c>
       <c r="AB148" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="149" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16055,7 +16064,7 @@
         <v>9.6333333333333293</v>
       </c>
       <c r="AB149" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="150" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16141,7 +16150,7 @@
         <v>18.716666666666701</v>
       </c>
       <c r="AB150" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="151" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16227,7 +16236,7 @@
         <v>43.2</v>
       </c>
       <c r="AB151" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="152" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16313,7 +16322,7 @@
         <v>40.520000000000003</v>
       </c>
       <c r="AB152" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="153" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16399,7 +16408,7 @@
         <v>46.293333333333301</v>
       </c>
       <c r="AB153" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="154" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16485,7 +16494,7 @@
         <v>51.6933333333333</v>
       </c>
       <c r="AB154" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="155" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16571,7 +16580,7 @@
         <v>0</v>
       </c>
       <c r="AB155" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="156" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16657,7 +16666,7 @@
         <v>1.51</v>
       </c>
       <c r="AB156" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="157" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16743,7 +16752,7 @@
         <v>17.940000000000001</v>
       </c>
       <c r="AB157" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="158" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16829,7 +16838,7 @@
         <v>21.213333333333299</v>
       </c>
       <c r="AB158" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="159" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -16915,7 +16924,7 @@
         <v>18.010000000000002</v>
       </c>
       <c r="AB159" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="160" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17001,7 +17010,7 @@
         <v>2.7066666666666701</v>
       </c>
       <c r="AB160" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="161" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17087,7 +17096,7 @@
         <v>5.3833333333333302</v>
       </c>
       <c r="AB161" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="162" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17173,7 +17182,7 @@
         <v>12.804</v>
       </c>
       <c r="AB162" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="163" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17259,7 +17268,7 @@
         <v>1.15333333333333</v>
       </c>
       <c r="AB163" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="164" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17345,7 +17354,7 @@
         <v>8.66</v>
       </c>
       <c r="AB164" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="165" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17431,7 +17440,7 @@
         <v>34.623333333333299</v>
       </c>
       <c r="AB165" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="166" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17517,7 +17526,7 @@
         <v>1.2466666666666699</v>
       </c>
       <c r="AB166" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="167" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17603,7 +17612,7 @@
         <v>10.283333333333299</v>
       </c>
       <c r="AB167" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="168" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17689,7 +17698,7 @@
         <v>10.27</v>
       </c>
       <c r="AB168" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="169" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17775,7 +17784,7 @@
         <v>0</v>
       </c>
       <c r="AB169" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="170" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17861,7 +17870,7 @@
         <v>941.36966666666694</v>
       </c>
       <c r="AB170" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="171" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -17947,7 +17956,7 @@
         <v>623.23933333333298</v>
       </c>
       <c r="AB171" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="172" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18033,7 +18042,7 @@
         <v>4.2696666666666703</v>
       </c>
       <c r="AB172" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="173" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18119,7 +18128,7 @@
         <v>7.63</v>
       </c>
       <c r="AB173" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="174" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18205,7 +18214,7 @@
         <v>5.1516666666666699</v>
       </c>
       <c r="AB174" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="175" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18291,7 +18300,7 @@
         <v>10.1466666666667</v>
       </c>
       <c r="AB175" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="176" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18378,7 +18387,7 @@
         <v>15.7466666666667</v>
       </c>
       <c r="AB176" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="177" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18464,7 +18473,7 @@
         <v>0</v>
       </c>
       <c r="AB177" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="178" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18550,7 +18559,7 @@
         <v>17.496666666666702</v>
       </c>
       <c r="AB178" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="179" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18636,7 +18645,7 @@
         <v>10.466666666666701</v>
       </c>
       <c r="AB179" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="180" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18722,7 +18731,7 @@
         <v>5.86</v>
       </c>
       <c r="AB180" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="181" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18808,7 +18817,7 @@
         <v>7.5566666666666702</v>
       </c>
       <c r="AB181" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="182" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18894,7 +18903,7 @@
         <v>0</v>
       </c>
       <c r="AB182" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="183" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -18980,7 +18989,7 @@
         <v>21.59</v>
       </c>
       <c r="AB183" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="184" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -19066,7 +19075,7 @@
         <v>13.563333333333301</v>
       </c>
       <c r="AB184" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="185" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -19152,7 +19161,7 @@
         <v>26.696666666666701</v>
       </c>
       <c r="AB185" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="186" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -19238,7 +19247,7 @@
         <v>0</v>
       </c>
       <c r="AB186" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="187" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -19325,7 +19334,7 @@
         <v>219.333333333333</v>
       </c>
       <c r="AB187" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="188" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -19411,7 +19420,7 @@
         <v>119.719333333333</v>
       </c>
       <c r="AB188" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="189" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -19497,7 +19506,7 @@
         <v>138.695333333333</v>
       </c>
       <c r="AB189" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="190" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -19583,7 +19592,7 @@
         <v>29.613333333333301</v>
       </c>
       <c r="AB190" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="191" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -19669,7 +19678,7 @@
         <v>60.866666666666703</v>
       </c>
       <c r="AB191" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="192" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -19755,7 +19764,7 @@
         <v>27.026666666666699</v>
       </c>
       <c r="AB192" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="193" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -19841,7 +19850,7 @@
         <v>24.513000000000002</v>
       </c>
       <c r="AB193" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="194" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -19927,7 +19936,7 @@
         <v>10.489000000000001</v>
       </c>
       <c r="AB194" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="195" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -20013,7 +20022,7 @@
         <v>0.79</v>
       </c>
       <c r="AB195" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="196" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -20099,7 +20108,7 @@
         <v>5.2433333333333296</v>
       </c>
       <c r="AB196" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="197" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -20185,7 +20194,7 @@
         <v>9.8666666666666707</v>
       </c>
       <c r="AB197" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="198" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -20271,7 +20280,7 @@
         <v>99.194999999999993</v>
       </c>
       <c r="AB198" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="199" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -20357,7 +20366,7 @@
         <v>23.0566666666667</v>
       </c>
       <c r="AB199" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="200" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -20443,7 +20452,7 @@
         <v>34.326666666666704</v>
       </c>
       <c r="AB200" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="201" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -20529,7 +20538,7 @@
         <v>80.601666666666702</v>
       </c>
       <c r="AB201" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="202" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -20615,7 +20624,7 @@
         <v>19.137333333333299</v>
       </c>
       <c r="AB202" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="203" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -20701,7 +20710,7 @@
         <v>10.4753333333333</v>
       </c>
       <c r="AB203" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="204" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -20787,7 +20796,7 @@
         <v>16.170000000000002</v>
       </c>
       <c r="AB204" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="205" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -20873,7 +20882,7 @@
         <v>14.8166666666667</v>
       </c>
       <c r="AB205" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="206" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -20959,7 +20968,7 @@
         <v>3.7733333333333299</v>
       </c>
       <c r="AB206" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="207" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -21045,7 +21054,7 @@
         <v>27.07</v>
       </c>
       <c r="AB207" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="208" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -21131,7 +21140,7 @@
         <v>70.776666666666699</v>
       </c>
       <c r="AB208" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="209" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -21217,7 +21226,7 @@
         <v>56.87</v>
       </c>
       <c r="AB209" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="210" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -21303,7 +21312,7 @@
         <v>94.483333333333306</v>
       </c>
       <c r="AB210" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="211" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -21389,7 +21398,7 @@
         <v>34.679666666666698</v>
       </c>
       <c r="AB211" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="212" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -21475,7 +21484,7 @@
         <v>44.32</v>
       </c>
       <c r="AB212" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="213" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -21561,7 +21570,7 @@
         <v>43.455666666666701</v>
       </c>
       <c r="AB213" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="214" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -21647,7 +21656,7 @@
         <v>41.3033</v>
       </c>
       <c r="AB214" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="215" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -21733,7 +21742,7 @@
         <v>53.733333333333299</v>
       </c>
       <c r="AB215" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="216" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -21819,7 +21828,7 @@
         <v>73.336666666666702</v>
       </c>
       <c r="AB216" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="217" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -21905,7 +21914,7 @@
         <v>47.845666666666702</v>
       </c>
       <c r="AB217" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="218" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -21991,7 +22000,7 @@
         <v>0</v>
       </c>
       <c r="AB218" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="219" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -22075,7 +22084,7 @@
         <v>32.78</v>
       </c>
       <c r="AB219" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="220" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -22161,7 +22170,7 @@
         <v>34.496666666666698</v>
       </c>
       <c r="AB220" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="221" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -22247,7 +22256,7 @@
         <v>38.235999999999997</v>
       </c>
       <c r="AB221" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="222" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -22333,7 +22342,7 @@
         <v>1.4866666666666699</v>
       </c>
       <c r="AB222" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="223" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -22419,7 +22428,7 @@
         <v>2.4066666666666698</v>
       </c>
       <c r="AB223" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="224" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -22505,7 +22514,7 @@
         <v>13.4435</v>
       </c>
       <c r="AB224" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="225" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -22591,7 +22600,7 @@
         <v>3.9</v>
       </c>
       <c r="AB225" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="226" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -22677,7 +22686,7 @@
         <v>78.526666666666699</v>
       </c>
       <c r="AB226" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="227" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -22763,7 +22772,7 @@
         <v>82.206666666666706</v>
       </c>
       <c r="AB227" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="228" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -22849,7 +22858,7 @@
         <v>0</v>
       </c>
       <c r="AB228" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="229" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -22935,7 +22944,7 @@
         <v>17.413</v>
       </c>
       <c r="AB229" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="230" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -23021,7 +23030,7 @@
         <v>65.523333333333298</v>
       </c>
       <c r="AB230" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="231" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -23107,7 +23116,7 @@
         <v>24.902333333333299</v>
       </c>
       <c r="AB231" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="232" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -23193,7 +23202,7 @@
         <v>7.9366666666666701</v>
       </c>
       <c r="AB232" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="233" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -23279,7 +23288,7 @@
         <v>19.84</v>
       </c>
       <c r="AB233" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="234" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -23365,7 +23374,7 @@
         <v>7.2569999999999997</v>
       </c>
       <c r="AB234" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="235" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -23451,7 +23460,7 @@
         <v>13.6793333333333</v>
       </c>
       <c r="AB235" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="236" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -23537,7 +23546,7 @@
         <v>6.1466666666666701</v>
       </c>
       <c r="AB236" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="237" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -23623,7 +23632,7 @@
         <v>8.68</v>
       </c>
       <c r="AB237" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="238" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -23709,7 +23718,7 @@
         <v>21.795666666666701</v>
       </c>
       <c r="AB238" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="239" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -23795,7 +23804,7 @@
         <v>111.97</v>
       </c>
       <c r="AB239" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="240" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -23881,7 +23890,7 @@
         <v>63.5966666666667</v>
       </c>
       <c r="AB240" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="241" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -23967,7 +23976,7 @@
         <v>3.1566666666666698</v>
       </c>
       <c r="AB241" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="242" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -24053,7 +24062,7 @@
         <v>8.2833333333333297</v>
       </c>
       <c r="AB242" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="243" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -24139,7 +24148,7 @@
         <v>2.36</v>
       </c>
       <c r="AB243" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="244" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -24225,7 +24234,7 @@
         <v>2.8333333333333299</v>
       </c>
       <c r="AB244" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="245" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -24311,7 +24320,7 @@
         <v>3.2533333333333299</v>
       </c>
       <c r="AB245" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="246" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -24397,7 +24406,7 @@
         <v>0</v>
       </c>
       <c r="AB246" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="247" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -24479,7 +24488,7 @@
         <v>35.9033333333333</v>
       </c>
       <c r="AB247" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="248" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -24565,7 +24574,7 @@
         <v>24.87</v>
       </c>
       <c r="AB248" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="249" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -24651,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="AB249" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="250" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -24737,7 +24746,7 @@
         <v>8.1233333333333295</v>
       </c>
       <c r="AB250" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="251" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -24823,7 +24832,7 @@
         <v>7.2466666666666697</v>
       </c>
       <c r="AB251" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="252" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -24909,7 +24918,7 @@
         <v>48.816666666666698</v>
       </c>
       <c r="AB252" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="253" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -24995,7 +25004,7 @@
         <v>41.75</v>
       </c>
       <c r="AB253" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="254" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -25081,7 +25090,7 @@
         <v>17.9933333333333</v>
       </c>
       <c r="AB254" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="255" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -25167,7 +25176,7 @@
         <v>24.055333333333301</v>
       </c>
       <c r="AB255" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="256" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -25253,7 +25262,7 @@
         <v>3.95333333333333</v>
       </c>
       <c r="AB256" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="257" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -25339,7 +25348,7 @@
         <v>3.2933333333333299</v>
       </c>
       <c r="AB257" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="258" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -25425,7 +25434,7 @@
         <v>1.863</v>
       </c>
       <c r="AB258" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="259" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -25511,7 +25520,7 @@
         <v>20.967666666666702</v>
       </c>
       <c r="AB259" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="260" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -25585,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="AB260" s="12" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="261" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -25659,7 +25668,7 @@
         <v>0</v>
       </c>
       <c r="AB261" s="12" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="262" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -25745,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="AB262" s="12" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="263" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -25831,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="AB263" s="12" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="264" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -25917,7 +25926,7 @@
         <v>0</v>
       </c>
       <c r="AB264" s="12" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="265" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -26003,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="AB265" s="12" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="266" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -26089,7 +26098,7 @@
         <v>0</v>
       </c>
       <c r="AB266" s="12" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="267" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -26175,7 +26184,7 @@
         <v>0</v>
       </c>
       <c r="AB267" s="12" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="268" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -26251,7 +26260,7 @@
         <v>0</v>
       </c>
       <c r="AB268" s="12" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="269" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -26327,7 +26336,7 @@
         <v>0</v>
       </c>
       <c r="AB269" s="12" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="270" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -26403,7 +26412,7 @@
         <v>0</v>
       </c>
       <c r="AB270" s="12" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="271" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -26479,7 +26488,7 @@
         <v>0</v>
       </c>
       <c r="AB271" s="12" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="272" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -26555,7 +26564,7 @@
         <v>0</v>
       </c>
       <c r="AB272" s="12" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="273" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -26631,7 +26640,7 @@
         <v>0</v>
       </c>
       <c r="AB273" s="12" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="274" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -26717,7 +26726,7 @@
         <v>0</v>
       </c>
       <c r="AB274" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="275" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -26803,7 +26812,7 @@
         <v>0</v>
       </c>
       <c r="AB275" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="276" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -26889,7 +26898,7 @@
         <v>0</v>
       </c>
       <c r="AB276" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="277" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -26975,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="AB277" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="278" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -27061,7 +27070,7 @@
         <v>0</v>
       </c>
       <c r="AB278" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="279" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -27147,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="AB279" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="280" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -27233,7 +27242,7 @@
         <v>0</v>
       </c>
       <c r="AB280" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="281" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -27319,7 +27328,7 @@
         <v>0</v>
       </c>
       <c r="AB281" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="282" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -27405,7 +27414,7 @@
         <v>0</v>
       </c>
       <c r="AB282" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="283" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -27491,7 +27500,7 @@
         <v>0</v>
       </c>
       <c r="AB283" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="284" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -27577,7 +27586,7 @@
         <v>0</v>
       </c>
       <c r="AB284" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="285" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -27663,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="AB285" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="286" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -27749,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="AB286" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="287" spans="1:28" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -27835,7 +27844,7 @@
         <v>0</v>
       </c>
       <c r="AB287" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="288" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -27921,7 +27930,7 @@
         <v>0</v>
       </c>
       <c r="AB288" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="289" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -28007,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="AB289" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="290" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -28093,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="AB290" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="291" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -28179,7 +28188,7 @@
         <v>0</v>
       </c>
       <c r="AB291" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="292" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -28265,7 +28274,7 @@
         <v>0</v>
       </c>
       <c r="AB292" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="293" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -28351,7 +28360,7 @@
         <v>0</v>
       </c>
       <c r="AB293" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="294" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -28437,7 +28446,7 @@
         <v>0</v>
       </c>
       <c r="AB294" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="295" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -28523,7 +28532,7 @@
         <v>0</v>
       </c>
       <c r="AB295" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="296" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -28609,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="AB296" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="297" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -28695,7 +28704,7 @@
         <v>0</v>
       </c>
       <c r="AB297" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="298" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -28781,7 +28790,7 @@
         <v>0</v>
       </c>
       <c r="AB298" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="299" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -28867,7 +28876,7 @@
         <v>0</v>
       </c>
       <c r="AB299" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="300" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -28953,7 +28962,7 @@
         <v>0</v>
       </c>
       <c r="AB300" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="301" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -29039,7 +29048,7 @@
         <v>0</v>
       </c>
       <c r="AB301" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="302" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -29125,7 +29134,7 @@
         <v>0</v>
       </c>
       <c r="AB302" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="303" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -29211,7 +29220,7 @@
         <v>0</v>
       </c>
       <c r="AB303" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="304" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -29297,7 +29306,7 @@
         <v>0</v>
       </c>
       <c r="AB304" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="305" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -29383,7 +29392,7 @@
         <v>0</v>
       </c>
       <c r="AB305" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="306" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -29469,7 +29478,7 @@
         <v>0</v>
       </c>
       <c r="AB306" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="307" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -29555,7 +29564,7 @@
         <v>0</v>
       </c>
       <c r="AB307" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="308" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -29641,7 +29650,7 @@
         <v>0</v>
       </c>
       <c r="AB308" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="309" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -29727,7 +29736,7 @@
         <v>0</v>
       </c>
       <c r="AB309" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="310" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -29813,7 +29822,7 @@
         <v>6.89333333333333</v>
       </c>
       <c r="AB310" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="311" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -29899,7 +29908,7 @@
         <v>0</v>
       </c>
       <c r="AB311" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="312" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -29985,7 +29994,7 @@
         <v>0</v>
       </c>
       <c r="AB312" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="313" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -30071,7 +30080,7 @@
         <v>0</v>
       </c>
       <c r="AB313" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="314" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -30157,7 +30166,7 @@
         <v>0</v>
       </c>
       <c r="AB314" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="315" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -30243,7 +30252,7 @@
         <v>0</v>
       </c>
       <c r="AB315" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="316" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -30329,7 +30338,7 @@
         <v>0</v>
       </c>
       <c r="AB316" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="317" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -30415,7 +30424,7 @@
         <v>0</v>
       </c>
       <c r="AB317" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="318" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -30501,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="AB318" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="319" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -30587,7 +30596,7 @@
         <v>0</v>
       </c>
       <c r="AB319" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="320" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -30673,7 +30682,7 @@
         <v>0</v>
       </c>
       <c r="AB320" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="321" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -30759,7 +30768,7 @@
         <v>0</v>
       </c>
       <c r="AB321" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="322" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -30845,7 +30854,7 @@
         <v>0</v>
       </c>
       <c r="AB322" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="323" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -30931,7 +30940,7 @@
         <v>0</v>
       </c>
       <c r="AB323" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="324" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -31017,7 +31026,7 @@
         <v>0</v>
       </c>
       <c r="AB324" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="325" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -31103,7 +31112,7 @@
         <v>0</v>
       </c>
       <c r="AB325" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="326" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -31189,7 +31198,7 @@
         <v>0</v>
       </c>
       <c r="AB326" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="327" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -31275,7 +31284,7 @@
         <v>0</v>
       </c>
       <c r="AB327" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="328" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -31361,7 +31370,7 @@
         <v>0</v>
       </c>
       <c r="AB328" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="329" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -31447,7 +31456,7 @@
         <v>0</v>
       </c>
       <c r="AB329" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="330" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -31533,7 +31542,7 @@
         <v>0</v>
       </c>
       <c r="AB330" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="331" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -31619,7 +31628,7 @@
         <v>0</v>
       </c>
       <c r="AB331" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="332" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -31705,7 +31714,7 @@
         <v>0</v>
       </c>
       <c r="AB332" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="333" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -31791,7 +31800,7 @@
         <v>0</v>
       </c>
       <c r="AB333" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="334" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -31877,7 +31886,7 @@
         <v>0</v>
       </c>
       <c r="AB334" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="335" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -31963,7 +31972,7 @@
         <v>0</v>
       </c>
       <c r="AB335" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="336" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -32049,7 +32058,7 @@
         <v>0</v>
       </c>
       <c r="AB336" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="337" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -32135,7 +32144,7 @@
         <v>0</v>
       </c>
       <c r="AB337" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="338" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -32221,7 +32230,7 @@
         <v>0</v>
       </c>
       <c r="AB338" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="339" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -32307,7 +32316,7 @@
         <v>0</v>
       </c>
       <c r="AB339" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="340" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -32393,7 +32402,7 @@
         <v>0</v>
       </c>
       <c r="AB340" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="341" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -32479,7 +32488,7 @@
         <v>0</v>
       </c>
       <c r="AB341" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="342" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -32565,7 +32574,7 @@
         <v>0</v>
       </c>
       <c r="AB342" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="343" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -32651,7 +32660,7 @@
         <v>0</v>
       </c>
       <c r="AB343" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="344" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -32737,7 +32746,7 @@
         <v>0</v>
       </c>
       <c r="AB344" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="345" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -32823,7 +32832,7 @@
         <v>0</v>
       </c>
       <c r="AB345" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="346" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -32909,7 +32918,7 @@
         <v>0</v>
       </c>
       <c r="AB346" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="347" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -32995,7 +33004,7 @@
         <v>0</v>
       </c>
       <c r="AB347" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="348" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -33082,7 +33091,7 @@
         <v>0</v>
       </c>
       <c r="AB348" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="349" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -33168,7 +33177,7 @@
         <v>0</v>
       </c>
       <c r="AB349" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="350" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -33254,7 +33263,7 @@
         <v>0</v>
       </c>
       <c r="AB350" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="351" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -33340,7 +33349,7 @@
         <v>0</v>
       </c>
       <c r="AB351" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="352" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -33426,7 +33435,7 @@
         <v>0</v>
       </c>
       <c r="AB352" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="353" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -33512,7 +33521,7 @@
         <v>0</v>
       </c>
       <c r="AB353" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="354" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -33598,7 +33607,7 @@
         <v>0</v>
       </c>
       <c r="AB354" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="355" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -33684,7 +33693,7 @@
         <v>0</v>
       </c>
       <c r="AB355" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="356" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -33770,7 +33779,7 @@
         <v>0</v>
       </c>
       <c r="AB356" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="357" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -33856,7 +33865,7 @@
         <v>0</v>
       </c>
       <c r="AB357" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="358" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -33942,7 +33951,7 @@
         <v>0</v>
       </c>
       <c r="AB358" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="359" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -34028,7 +34037,7 @@
         <v>0</v>
       </c>
       <c r="AB359" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="360" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -34114,7 +34123,7 @@
         <v>0</v>
       </c>
       <c r="AB360" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="361" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -34200,7 +34209,7 @@
         <v>0</v>
       </c>
       <c r="AB361" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="362" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -34286,7 +34295,7 @@
         <v>0</v>
       </c>
       <c r="AB362" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="363" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -34372,7 +34381,7 @@
         <v>0</v>
       </c>
       <c r="AB363" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="364" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -34458,7 +34467,7 @@
         <v>0</v>
       </c>
       <c r="AB364" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="365" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -34544,7 +34553,7 @@
         <v>0</v>
       </c>
       <c r="AB365" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="366" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -34630,7 +34639,7 @@
         <v>0</v>
       </c>
       <c r="AB366" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="367" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -34716,7 +34725,7 @@
         <v>0</v>
       </c>
       <c r="AB367" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="368" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -34802,7 +34811,7 @@
         <v>0</v>
       </c>
       <c r="AB368" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="369" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -34888,7 +34897,7 @@
         <v>0</v>
       </c>
       <c r="AB369" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="370" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -34974,7 +34983,7 @@
         <v>0</v>
       </c>
       <c r="AB370" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="371" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -35060,7 +35069,7 @@
         <v>0</v>
       </c>
       <c r="AB371" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="372" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -35146,7 +35155,7 @@
         <v>0</v>
       </c>
       <c r="AB372" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="373" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -35232,7 +35241,7 @@
         <v>0</v>
       </c>
       <c r="AB373" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="374" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -35318,7 +35327,7 @@
         <v>0</v>
       </c>
       <c r="AB374" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="375" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -35404,7 +35413,7 @@
         <v>0</v>
       </c>
       <c r="AB375" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="376" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -35490,7 +35499,7 @@
         <v>0</v>
       </c>
       <c r="AB376" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="377" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -35576,7 +35585,7 @@
         <v>0</v>
       </c>
       <c r="AB377" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="378" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -35662,7 +35671,7 @@
         <v>0</v>
       </c>
       <c r="AB378" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="379" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -35748,7 +35757,7 @@
         <v>0</v>
       </c>
       <c r="AB379" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="380" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -35834,7 +35843,7 @@
         <v>0</v>
       </c>
       <c r="AB380" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="381" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -35920,7 +35929,7 @@
         <v>0</v>
       </c>
       <c r="AB381" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="382" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -36006,7 +36015,7 @@
         <v>0</v>
       </c>
       <c r="AB382" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="383" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -36092,7 +36101,7 @@
         <v>0</v>
       </c>
       <c r="AB383" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="384" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -36178,7 +36187,7 @@
         <v>0</v>
       </c>
       <c r="AB384" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="385" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -36264,7 +36273,7 @@
         <v>0</v>
       </c>
       <c r="AB385" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="386" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -36350,7 +36359,7 @@
         <v>0</v>
       </c>
       <c r="AB386" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="387" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -36436,7 +36445,7 @@
         <v>0</v>
       </c>
       <c r="AB387" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="388" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -36522,7 +36531,7 @@
         <v>0</v>
       </c>
       <c r="AB388" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="389" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -36608,7 +36617,7 @@
         <v>0</v>
       </c>
       <c r="AB389" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="390" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -36694,7 +36703,7 @@
         <v>0</v>
       </c>
       <c r="AB390" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="391" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -36780,7 +36789,7 @@
         <v>0</v>
       </c>
       <c r="AB391" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="392" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -36866,7 +36875,7 @@
         <v>0</v>
       </c>
       <c r="AB392" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="393" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -36952,7 +36961,7 @@
         <v>0</v>
       </c>
       <c r="AB393" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="394" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -37038,7 +37047,7 @@
         <v>0</v>
       </c>
       <c r="AB394" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="395" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -37124,7 +37133,7 @@
         <v>0</v>
       </c>
       <c r="AB395" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="396" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -37210,7 +37219,7 @@
         <v>0</v>
       </c>
       <c r="AB396" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="397" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -37296,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="AB397" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="398" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -37382,7 +37391,7 @@
         <v>0</v>
       </c>
       <c r="AB398" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="399" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -37468,7 +37477,7 @@
         <v>0</v>
       </c>
       <c r="AB399" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="400" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -37554,7 +37563,7 @@
         <v>0</v>
       </c>
       <c r="AB400" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="401" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -37640,7 +37649,7 @@
         <v>0</v>
       </c>
       <c r="AB401" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="402" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -37726,7 +37735,7 @@
         <v>0</v>
       </c>
       <c r="AB402" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="403" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -37812,7 +37821,7 @@
         <v>0</v>
       </c>
       <c r="AB403" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="404" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -37898,7 +37907,7 @@
         <v>0</v>
       </c>
       <c r="AB404" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="405" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -37984,7 +37993,7 @@
         <v>0</v>
       </c>
       <c r="AB405" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="406" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -38070,7 +38079,7 @@
         <v>0</v>
       </c>
       <c r="AB406" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="407" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -38156,7 +38165,7 @@
         <v>0</v>
       </c>
       <c r="AB407" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="408" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -38242,7 +38251,7 @@
         <v>0</v>
       </c>
       <c r="AB408" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="409" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -38328,7 +38337,7 @@
         <v>0</v>
       </c>
       <c r="AB409" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="410" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -38414,7 +38423,7 @@
         <v>0</v>
       </c>
       <c r="AB410" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="411" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -38500,7 +38509,7 @@
         <v>0</v>
       </c>
       <c r="AB411" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="412" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -38586,7 +38595,7 @@
         <v>0</v>
       </c>
       <c r="AB412" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="413" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -38672,7 +38681,7 @@
         <v>0</v>
       </c>
       <c r="AB413" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="414" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -38758,7 +38767,7 @@
         <v>0</v>
       </c>
       <c r="AB414" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="415" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -38844,7 +38853,7 @@
         <v>0</v>
       </c>
       <c r="AB415" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="416" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -38930,7 +38939,7 @@
         <v>0</v>
       </c>
       <c r="AB416" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="417" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -39016,7 +39025,7 @@
         <v>0</v>
       </c>
       <c r="AB417" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="418" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -39102,7 +39111,7 @@
         <v>0</v>
       </c>
       <c r="AB418" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="419" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -39188,7 +39197,7 @@
         <v>0</v>
       </c>
       <c r="AB419" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="420" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -39274,7 +39283,7 @@
         <v>0</v>
       </c>
       <c r="AB420" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="421" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -39360,7 +39369,7 @@
         <v>0</v>
       </c>
       <c r="AB421" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="422" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -39446,7 +39455,7 @@
         <v>0</v>
       </c>
       <c r="AB422" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="423" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -39532,7 +39541,7 @@
         <v>0</v>
       </c>
       <c r="AB423" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="424" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -39618,7 +39627,7 @@
         <v>0</v>
       </c>
       <c r="AB424" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="425" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -39704,7 +39713,7 @@
         <v>0</v>
       </c>
       <c r="AB425" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="426" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -39790,7 +39799,7 @@
         <v>0</v>
       </c>
       <c r="AB426" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="427" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -39876,7 +39885,7 @@
         <v>0</v>
       </c>
       <c r="AB427" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="428" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -39962,7 +39971,7 @@
         <v>0</v>
       </c>
       <c r="AB428" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="429" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -40048,7 +40057,7 @@
         <v>0</v>
       </c>
       <c r="AB429" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="430" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -40134,7 +40143,7 @@
         <v>0</v>
       </c>
       <c r="AB430" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="431" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -40220,7 +40229,7 @@
         <v>0</v>
       </c>
       <c r="AB431" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="432" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -40306,7 +40315,7 @@
         <v>0</v>
       </c>
       <c r="AB432" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="433" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -40392,7 +40401,7 @@
         <v>0</v>
       </c>
       <c r="AB433" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="434" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -40478,7 +40487,7 @@
         <v>0</v>
       </c>
       <c r="AB434" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="435" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -40564,7 +40573,7 @@
         <v>0</v>
       </c>
       <c r="AB435" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="436" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -40650,7 +40659,7 @@
         <v>0</v>
       </c>
       <c r="AB436" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="437" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -40736,7 +40745,7 @@
         <v>0</v>
       </c>
       <c r="AB437" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="438" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -40822,7 +40831,7 @@
         <v>0</v>
       </c>
       <c r="AB438" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="439" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -40908,7 +40917,7 @@
         <v>0</v>
       </c>
       <c r="AB439" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="440" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -40994,7 +41003,7 @@
         <v>0</v>
       </c>
       <c r="AB440" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="441" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -41080,7 +41089,7 @@
         <v>0</v>
       </c>
       <c r="AB441" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="442" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -41166,7 +41175,7 @@
         <v>0</v>
       </c>
       <c r="AB442" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="443" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -41250,7 +41259,7 @@
         <v>0</v>
       </c>
       <c r="AB443" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="444" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -41336,7 +41345,7 @@
         <v>0</v>
       </c>
       <c r="AB444" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="445" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -41422,7 +41431,7 @@
         <v>0</v>
       </c>
       <c r="AB445" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="446" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -41508,7 +41517,7 @@
         <v>0</v>
       </c>
       <c r="AB446" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="447" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -41594,7 +41603,7 @@
         <v>2.0533333333333301</v>
       </c>
       <c r="AB447" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="448" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -41681,7 +41690,7 @@
         <v>0</v>
       </c>
       <c r="AB448" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="449" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -41767,7 +41776,7 @@
         <v>0.92666666666666697</v>
       </c>
       <c r="AB449" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="450" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -41853,7 +41862,7 @@
         <v>0.34666666666666701</v>
       </c>
       <c r="AB450" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="451" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -41939,7 +41948,7 @@
         <v>0</v>
       </c>
       <c r="AB451" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="452" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -42025,7 +42034,7 @@
         <v>0</v>
       </c>
       <c r="AB452" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="453" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -42111,7 +42120,7 @@
         <v>0</v>
       </c>
       <c r="AB453" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="454" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -42197,7 +42206,7 @@
         <v>2.14333333333333</v>
       </c>
       <c r="AB454" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="455" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -42283,7 +42292,7 @@
         <v>0</v>
       </c>
       <c r="AB455" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="456" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -42369,7 +42378,7 @@
         <v>3.2616666666666698</v>
       </c>
       <c r="AB456" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="457" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -42455,7 +42464,7 @@
         <v>0</v>
       </c>
       <c r="AB457" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="458" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -42541,7 +42550,7 @@
         <v>0</v>
       </c>
       <c r="AB458" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="459" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -42627,7 +42636,7 @@
         <v>0</v>
       </c>
       <c r="AB459" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="460" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -42713,7 +42722,7 @@
         <v>0</v>
       </c>
       <c r="AB460" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="461" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -42799,7 +42808,7 @@
         <v>0.49</v>
       </c>
       <c r="AB461" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="462" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -42885,7 +42894,7 @@
         <v>0</v>
       </c>
       <c r="AB462" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="463" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -42971,7 +42980,7 @@
         <v>0</v>
       </c>
       <c r="AB463" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="464" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -43057,7 +43066,7 @@
         <v>0</v>
       </c>
       <c r="AB464" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="465" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -43143,7 +43152,7 @@
         <v>0</v>
       </c>
       <c r="AB465" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="466" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -43229,7 +43238,7 @@
         <v>0</v>
       </c>
       <c r="AB466" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="467" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -43315,7 +43324,7 @@
         <v>0</v>
       </c>
       <c r="AB467" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="468" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -43401,7 +43410,7 @@
         <v>0</v>
       </c>
       <c r="AB468" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="469" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -43487,7 +43496,7 @@
         <v>0</v>
       </c>
       <c r="AB469" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="470" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -43573,7 +43582,7 @@
         <v>0</v>
       </c>
       <c r="AB470" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="471" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -43659,7 +43668,7 @@
         <v>0</v>
       </c>
       <c r="AB471" s="12" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="472" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -43745,7 +43754,7 @@
         <v>0</v>
       </c>
       <c r="AB472" s="12" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="473" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -43821,7 +43830,7 @@
       </c>
       <c r="AA473" s="11"/>
       <c r="AB473" s="12" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="474" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -43907,7 +43916,7 @@
         <v>2.7796660000000002</v>
       </c>
       <c r="AB474" s="12" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="475" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -43993,7 +44002,7 @@
         <v>0</v>
       </c>
       <c r="AB475" s="12" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="476" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -44079,7 +44088,7 @@
         <v>0</v>
       </c>
       <c r="AB476" s="12" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="477" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -44165,7 +44174,7 @@
         <v>0</v>
       </c>
       <c r="AB477" s="12" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="478" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -44251,7 +44260,7 @@
         <v>0</v>
       </c>
       <c r="AB478" s="12" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="479" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -44337,7 +44346,7 @@
         <v>2.4086666666666701</v>
       </c>
       <c r="AB479" s="12" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="480" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -44423,7 +44432,7 @@
         <v>0</v>
       </c>
       <c r="AB480" s="12" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="481" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -44509,7 +44518,7 @@
         <v>0</v>
       </c>
       <c r="AB481" s="12" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="482" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -44595,7 +44604,7 @@
         <v>0</v>
       </c>
       <c r="AB482" s="12" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="483" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -44681,7 +44690,7 @@
         <v>0</v>
       </c>
       <c r="AB483" s="12" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="484" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -44765,7 +44774,7 @@
         <v>0</v>
       </c>
       <c r="AB484" s="12" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="485" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -44851,7 +44860,7 @@
         <v>0</v>
       </c>
       <c r="AB485" s="12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="486" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -44937,7 +44946,7 @@
         <v>0</v>
       </c>
       <c r="AB486" s="12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="487" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -45023,7 +45032,7 @@
         <v>0</v>
       </c>
       <c r="AB487" s="12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="488" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -45109,7 +45118,7 @@
         <v>0</v>
       </c>
       <c r="AB488" s="12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="489" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -45195,7 +45204,7 @@
         <v>0</v>
       </c>
       <c r="AB489" s="12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="490" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -45281,7 +45290,7 @@
         <v>0</v>
       </c>
       <c r="AB490" s="12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="491" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -45367,7 +45376,7 @@
         <v>0</v>
       </c>
       <c r="AB491" s="12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="492" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -45453,7 +45462,7 @@
         <v>0</v>
       </c>
       <c r="AB492" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="493" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -45539,7 +45548,7 @@
         <v>0</v>
       </c>
       <c r="AB493" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="494" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -45625,7 +45634,7 @@
         <v>0</v>
       </c>
       <c r="AB494" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="495" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -45709,7 +45718,7 @@
         <v>0</v>
       </c>
       <c r="AB495" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="496" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -45795,7 +45804,7 @@
         <v>0</v>
       </c>
       <c r="AB496" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="497" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -45881,7 +45890,7 @@
         <v>1.42</v>
       </c>
       <c r="AB497" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="498" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -45967,7 +45976,7 @@
         <v>2.04666666666667</v>
       </c>
       <c r="AB498" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="499" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -46053,7 +46062,7 @@
         <v>2.0966666666666698</v>
       </c>
       <c r="AB499" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="500" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -46139,7 +46148,7 @@
         <v>0</v>
       </c>
       <c r="AB500" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="501" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -46225,7 +46234,7 @@
         <v>0.11333333333333299</v>
       </c>
       <c r="AB501" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="502" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -46311,7 +46320,7 @@
         <v>0</v>
       </c>
       <c r="AB502" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="503" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -46397,7 +46406,7 @@
         <v>0</v>
       </c>
       <c r="AB503" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="504" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -46483,7 +46492,7 @@
         <v>0</v>
       </c>
       <c r="AB504" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="505" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -46569,7 +46578,7 @@
         <v>0</v>
       </c>
       <c r="AB505" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="506" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -46655,7 +46664,7 @@
         <v>0</v>
       </c>
       <c r="AB506" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="507" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -46741,7 +46750,7 @@
         <v>0</v>
       </c>
       <c r="AB507" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="508" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -46827,7 +46836,7 @@
         <v>0.73666666666666702</v>
       </c>
       <c r="AB508" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="509" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -46913,7 +46922,7 @@
         <v>0</v>
       </c>
       <c r="AB509" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="510" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -46999,7 +47008,7 @@
         <v>0</v>
       </c>
       <c r="AB510" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="511" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -47085,7 +47094,7 @@
         <v>0</v>
       </c>
       <c r="AB511" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="512" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
@@ -47171,12 +47180,12 @@
         <v>0</v>
       </c>
       <c r="AB512" s="12" t="s">
-        <v>541</v>
+        <v>641</v>
       </c>
     </row>
     <row r="513" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B513" s="7">
         <v>2.6033333333333299</v>
@@ -47257,12 +47266,12 @@
         <v>0</v>
       </c>
       <c r="AB513" s="12" t="s">
-        <v>541</v>
+        <v>641</v>
       </c>
     </row>
     <row r="514" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B514" s="7">
         <v>7.0766666666666698</v>
@@ -47343,12 +47352,12 @@
         <v>0</v>
       </c>
       <c r="AB514" s="12" t="s">
-        <v>541</v>
+        <v>641</v>
       </c>
     </row>
     <row r="515" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B515" s="7">
         <v>71.900999999999996</v>
@@ -47429,12 +47438,12 @@
         <v>0</v>
       </c>
       <c r="AB515" s="12" t="s">
-        <v>541</v>
+        <v>641</v>
       </c>
     </row>
     <row r="516" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B516" s="7">
         <v>1.2433333333333301</v>
@@ -47515,12 +47524,12 @@
         <v>39.996666666666698</v>
       </c>
       <c r="AB516" s="12" t="s">
-        <v>541</v>
+        <v>641</v>
       </c>
     </row>
     <row r="517" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B517" s="7">
         <v>0.59666666666666701</v>
@@ -47589,12 +47598,12 @@
         <v>0</v>
       </c>
       <c r="AB517" s="12" t="s">
-        <v>541</v>
+        <v>641</v>
       </c>
     </row>
     <row r="518" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B518" s="7">
         <v>0.413333333333333</v>
@@ -47659,12 +47668,12 @@
         <v>0</v>
       </c>
       <c r="AB518" s="12" t="s">
-        <v>541</v>
+        <v>641</v>
       </c>
     </row>
     <row r="519" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B519" s="7">
         <v>70.626666666666694</v>
@@ -47745,12 +47754,12 @@
         <v>0</v>
       </c>
       <c r="AB519" s="12" t="s">
-        <v>541</v>
+        <v>641</v>
       </c>
     </row>
     <row r="520" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B520" s="7">
         <v>7.65</v>
@@ -47817,12 +47826,12 @@
         <v>0</v>
       </c>
       <c r="AB520" s="12" t="s">
-        <v>541</v>
+        <v>641</v>
       </c>
     </row>
     <row r="521" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B521" s="7">
         <v>68.463999999999999</v>
@@ -47903,12 +47912,12 @@
         <v>0</v>
       </c>
       <c r="AB521" s="12" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="522" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B522" s="7">
         <v>76.259</v>
@@ -47989,12 +47998,12 @@
         <v>0</v>
       </c>
       <c r="AB522" s="12" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="523" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B523" s="7">
         <v>55.142666599999998</v>
@@ -48075,12 +48084,12 @@
         <v>0</v>
       </c>
       <c r="AB523" s="12" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="524" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B524" s="7">
         <v>77.983666666666707</v>
@@ -48161,12 +48170,12 @@
         <v>0</v>
       </c>
       <c r="AB524" s="12" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="525" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B525" s="7">
         <v>58.423666666666698</v>
@@ -48247,12 +48256,12 @@
         <v>0</v>
       </c>
       <c r="AB525" s="12" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="526" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B526" s="7">
         <v>50.463999999999999</v>
@@ -48333,12 +48342,12 @@
         <v>0</v>
       </c>
       <c r="AB526" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="527" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B527" s="7">
         <v>68.0356666666667</v>
@@ -48419,12 +48428,12 @@
         <v>0</v>
       </c>
       <c r="AB527" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="528" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B528" s="7">
         <v>69.051333333333304</v>
@@ -48505,12 +48514,12 @@
         <v>0</v>
       </c>
       <c r="AB528" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="529" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B529" s="7">
         <v>71.167333333333303</v>
@@ -48591,12 +48600,12 @@
         <v>0</v>
       </c>
       <c r="AB529" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="530" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B530" s="7">
         <v>54.212000000000003</v>
@@ -48677,12 +48686,12 @@
         <v>0</v>
       </c>
       <c r="AB530" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="531" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B531" s="7">
         <v>41.5</v>
@@ -48763,12 +48772,12 @@
         <v>0</v>
       </c>
       <c r="AB531" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="532" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B532" s="7">
         <v>81.989333333333306</v>
@@ -48849,12 +48858,12 @@
         <v>4.07</v>
       </c>
       <c r="AB532" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="533" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B533" s="7">
         <v>81.548666666666705</v>
@@ -48935,12 +48944,12 @@
         <v>4.7733333333333299</v>
       </c>
       <c r="AB533" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="534" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B534" s="7">
         <v>71.137</v>
@@ -49021,12 +49030,12 @@
         <v>0</v>
       </c>
       <c r="AB534" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="535" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B535" s="7">
         <v>68.936666666666696</v>
@@ -49107,12 +49116,12 @@
         <v>0</v>
       </c>
       <c r="AB535" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="536" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B536" s="7">
         <v>80.994</v>
@@ -49193,12 +49202,12 @@
         <v>10.28</v>
       </c>
       <c r="AB536" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="537" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B537" s="7">
         <v>75.266999999999996</v>
@@ -49279,12 +49288,12 @@
         <v>0</v>
       </c>
       <c r="AB537" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="538" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B538" s="7">
         <v>70.128333333333302</v>
@@ -49365,12 +49374,12 @@
         <v>0</v>
       </c>
       <c r="AB538" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="539" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="9" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B539" s="7">
         <v>70.892333333333298</v>
@@ -49451,12 +49460,12 @@
         <v>0</v>
       </c>
       <c r="AB539" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="540" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B540" s="7">
         <v>61.667666666666697</v>
@@ -49537,12 +49546,12 @@
         <v>0</v>
       </c>
       <c r="AB540" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="541" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B541" s="7">
         <v>71.801333333333304</v>
@@ -49623,12 +49632,12 @@
         <v>0</v>
       </c>
       <c r="AB541" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="542" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B542" s="7">
         <v>79.524666666666704</v>
@@ -49709,12 +49718,12 @@
         <v>5.28</v>
       </c>
       <c r="AB542" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="543" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B543" s="7">
         <v>71.412333333333294</v>
@@ -49795,12 +49804,12 @@
         <v>0</v>
       </c>
       <c r="AB543" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="544" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B544" s="7">
         <v>76.395333333333298</v>
@@ -49881,12 +49890,12 @@
         <v>0</v>
       </c>
       <c r="AB544" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="545" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B545" s="7">
         <v>81.105999999999995</v>
@@ -49968,12 +49977,12 @@
         <v>0</v>
       </c>
       <c r="AB545" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="546" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B546" s="7">
         <v>82.037333333333294</v>
@@ -50054,12 +50063,12 @@
         <v>0</v>
       </c>
       <c r="AB546" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="547" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B547" s="7">
         <v>89.978999999999999</v>
@@ -50141,12 +50150,12 @@
         <v>29.35</v>
       </c>
       <c r="AB547" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="548" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B548" s="7">
         <v>72.527666666666704</v>
@@ -50227,12 +50236,12 @@
         <v>9.2566666666666695</v>
       </c>
       <c r="AB548" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="549" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B549" s="7">
         <v>74.951333333333295</v>
@@ -50311,12 +50320,12 @@
         <v>0</v>
       </c>
       <c r="AB549" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="550" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B550" s="7">
         <v>85.77</v>
@@ -50397,12 +50406,12 @@
         <v>16.216666666666701</v>
       </c>
       <c r="AB550" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="551" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B551" s="7">
         <v>85.192999999999998</v>
@@ -50483,12 +50492,12 @@
         <v>0</v>
       </c>
       <c r="AB551" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="552" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B552" s="7">
         <v>24.902333333333299</v>
@@ -50565,12 +50574,12 @@
         <v>0</v>
       </c>
       <c r="AB552" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="553" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B553" s="7">
         <v>91.884333333333302</v>
@@ -50652,12 +50661,12 @@
         <v>46.396666666666697</v>
       </c>
       <c r="AB553" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="554" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B554" s="7">
         <v>74.951333333333295</v>
@@ -50738,12 +50747,12 @@
         <v>0</v>
       </c>
       <c r="AB554" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="555" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B555" s="7">
         <v>58.362333333333297</v>
@@ -50824,12 +50833,12 @@
         <v>0</v>
       </c>
       <c r="AB555" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="556" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="9" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B556" s="7">
         <v>48.590333333333298</v>
@@ -50910,12 +50919,12 @@
         <v>0</v>
       </c>
       <c r="AB556" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="557" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B557" s="7">
         <v>69.376666666666694</v>
@@ -50996,12 +51005,12 @@
         <v>0</v>
       </c>
       <c r="AB557" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="558" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B558" s="7">
         <v>6.4269999999999996</v>
@@ -51082,12 +51091,12 @@
         <v>0</v>
       </c>
       <c r="AB558" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="559" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B559" s="7">
         <v>1.6866666666666701</v>
@@ -51168,12 +51177,12 @@
         <v>0</v>
       </c>
       <c r="AB559" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="560" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B560" s="7">
         <v>76.841333333333296</v>
@@ -51252,12 +51261,12 @@
         <v>12.4433333333333</v>
       </c>
       <c r="AB560" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="561" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B561" s="7">
         <v>80.143333333333302</v>
@@ -51338,12 +51347,12 @@
         <v>0</v>
       </c>
       <c r="AB561" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="562" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B562" s="7">
         <v>80.350633333333306</v>
@@ -51424,12 +51433,12 @@
         <v>0</v>
       </c>
       <c r="AB562" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="563" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B563" s="7">
         <v>13.9966666666667</v>
@@ -51510,12 +51519,12 @@
         <v>0</v>
       </c>
       <c r="AB563" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="564" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B564" s="7">
         <v>80.009333333333302</v>
@@ -51596,12 +51605,12 @@
         <v>0</v>
       </c>
       <c r="AB564" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="565" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B565" s="7">
         <v>12.696666666666699</v>
@@ -51682,12 +51691,12 @@
         <v>0</v>
       </c>
       <c r="AB565" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="566" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B566" s="7">
         <v>75.842333333333301</v>
@@ -51768,12 +51777,12 @@
         <v>0</v>
       </c>
       <c r="AB566" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="567" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B567" s="7">
         <v>13.533333333333299</v>
@@ -51854,12 +51863,12 @@
         <v>0</v>
       </c>
       <c r="AB567" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="568" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B568" s="7">
         <v>80.218000000000004</v>
@@ -51940,12 +51949,12 @@
         <v>0</v>
       </c>
       <c r="AB568" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="569" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B569" s="7">
         <v>14.876666666666701</v>
@@ -52026,12 +52035,12 @@
         <v>0</v>
       </c>
       <c r="AB569" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="570" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B570" s="7">
         <v>77.864333333333306</v>
@@ -52112,12 +52121,12 @@
         <v>0</v>
       </c>
       <c r="AB570" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="571" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B571" s="7">
         <v>14.963333333333299</v>
@@ -52198,12 +52207,12 @@
         <v>0</v>
       </c>
       <c r="AB571" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="572" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B572" s="7">
         <v>82.581000000000003</v>
@@ -52284,12 +52293,12 @@
         <v>0</v>
       </c>
       <c r="AB572" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="573" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B573" s="7">
         <v>11.953333333333299</v>
@@ -52370,12 +52379,12 @@
         <v>0</v>
       </c>
       <c r="AB573" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="574" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="9" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B574" s="7">
         <v>79.986000000000004</v>
@@ -52456,12 +52465,12 @@
         <v>0</v>
       </c>
       <c r="AB574" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="575" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B575" s="7">
         <v>12.6366666666667</v>
@@ -52542,12 +52551,12 @@
         <v>0</v>
       </c>
       <c r="AB575" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="576" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B576" s="7">
         <v>12.29</v>
@@ -52628,12 +52637,12 @@
         <v>0</v>
       </c>
       <c r="AB576" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="577" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B577" s="7">
         <v>11.449</v>
@@ -52714,12 +52723,12 @@
         <v>1.4666666666666699</v>
       </c>
       <c r="AB577" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="578" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B578" s="7">
         <v>76.250666666666703</v>
@@ -52800,12 +52809,12 @@
         <v>0</v>
       </c>
       <c r="AB578" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="579" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B579" s="7">
         <v>11.466666666666701</v>
@@ -52886,12 +52895,12 @@
         <v>0</v>
       </c>
       <c r="AB579" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="580" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B580" s="7">
         <v>1.8009999999999999</v>
@@ -52972,12 +52981,12 @@
         <v>0</v>
       </c>
       <c r="AB580" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="581" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B581" s="7">
         <v>2.91</v>
@@ -53058,12 +53067,12 @@
         <v>0</v>
       </c>
       <c r="AB581" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="582" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B582" s="7">
         <v>5.75</v>
@@ -53144,12 +53153,12 @@
         <v>0</v>
       </c>
       <c r="AB582" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="583" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B583" s="7">
         <v>91.284000000000006</v>
@@ -53230,12 +53239,12 @@
         <v>0</v>
       </c>
       <c r="AB583" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="584" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B584" s="7">
         <v>4.4683333333333302</v>
@@ -53316,12 +53325,12 @@
         <v>9.2133333333333294</v>
       </c>
       <c r="AB584" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="585" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B585" s="7">
         <v>86.646000000000001</v>
@@ -53402,12 +53411,12 @@
         <v>0</v>
       </c>
       <c r="AB585" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="586" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B586" s="7">
         <v>9.6920000000000002</v>
@@ -53488,12 +53497,12 @@
         <v>24.973333333333301</v>
       </c>
       <c r="AB586" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="587" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B587" s="7">
         <v>67.684333333333299</v>
@@ -53575,12 +53584,12 @@
         <v>0</v>
       </c>
       <c r="AB587" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="588" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B588" s="7">
         <v>3.1059999999999999</v>
@@ -53661,12 +53670,12 @@
         <v>0</v>
       </c>
       <c r="AB588" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="589" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B589" s="7">
         <v>3.464</v>
@@ -53747,12 +53756,12 @@
         <v>0</v>
       </c>
       <c r="AB589" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="590" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B590" s="7">
         <v>3.524</v>
@@ -53833,12 +53842,12 @@
         <v>0</v>
       </c>
       <c r="AB590" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="591" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B591" s="7">
         <v>42.961166666666699</v>
@@ -53919,12 +53928,12 @@
         <v>2.4933333333333301</v>
       </c>
       <c r="AB591" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="592" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B592" s="7">
         <v>0</v>
@@ -54005,12 +54014,12 @@
         <v>0</v>
       </c>
       <c r="AB592" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="593" spans="1:28" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B593" s="7">
         <v>15.8233333333333</v>
@@ -54091,12 +54100,12 @@
         <v>0</v>
       </c>
       <c r="AB593" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="594" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B594" s="7">
         <v>3.8593333333333302</v>
@@ -54186,12 +54195,12 @@
         <v>0</v>
       </c>
       <c r="AB594" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="595" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B595" s="7">
         <v>6.6829999999999998</v>
@@ -54272,12 +54281,12 @@
         <v>0</v>
       </c>
       <c r="AB595" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="596" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B596" s="7">
         <v>50.5133333333333</v>
@@ -54358,12 +54367,12 @@
         <v>27.69</v>
       </c>
       <c r="AB596" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="597" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B597" s="7">
         <v>54.46</v>
@@ -54444,12 +54453,12 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="AB597" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="598" spans="1:28" ht="11.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B598" s="7">
         <v>6.2446666666666699</v>
@@ -54530,10 +54539,11 @@
         <v>0</v>
       </c>
       <c r="AB598" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AB598" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
